--- a/preprocessed/regions400.xlsx
+++ b/preprocessed/regions400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t xml:space="preserve">chr</t>
   </si>
@@ -32,6 +32,12 @@
     <t xml:space="preserve">SNP</t>
   </si>
   <si>
+    <t xml:space="preserve">refseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crispick</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -41,262 +47,526 @@
     <t xml:space="preserve">rs71475909</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000011.9:+:47377084-47377482</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs10838702</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:47410689-47411087</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1377416</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:47416547-47416945</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs11039225</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:47430400-47430798</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs10897011|rs11230180</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:59961228-59961685</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs7936120</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:60000375-60000773</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs718376</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:60002736-60003134</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs672399</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:60019913-60020311</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs7128450</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:60031071-60031469</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs7930318|rs4938932</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:60033172-60033647</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1237999</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:85814831-85815229</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs474479|rs598726</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:85828349-85828750</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs10792832</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:85867676-85868074</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs74685827</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000011.9:+:121352878-121353276</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">rs28834970</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000008.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000008.10:+:27194922-27195320</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs73223431</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000008.10:+:27219788-27220186</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2279590</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000008.10:+:27456054-27456452</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1532276|rs1532277|rs1532278</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000008.10:+:27465958-27466514</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs34173062</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000008.10:+:145158408-145158806</t>
+  </si>
+  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">rs4318227</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000016.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000016.9:+:29984640-29985038</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1140239</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000016.9:+:30021203-30021601</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1549299</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000016.9:+:31153947-31154345</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">rs9271579|rs9271580</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000006.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000006.11:+:32590438-32590840</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs9271608</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000006.11:+:32591389-32591787</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs785135</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000006.11:+:114637232-114637630</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs785143</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000006.11:+:114645038-114645436</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">rs1317708|rs4989024|rs874424</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000017.10:+:1639520-1640233</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2287322|rs8077638|rs34962442|rs62090051</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:1640330-1641234</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1310</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:1641516-1641914</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2070863</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:1648303-1648701</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2075659</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:18044393-18044791</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2072653</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:18044899-18045297</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs58804619</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:18090455-18090853</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs199528</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:44842937-44843335</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs199523|rs199524</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:44848239-44848716</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs70602</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:44859516-44859914</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs916888</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000017.10:+:44862934-44863332</t>
+  </si>
+  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">rs113598561</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000019.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000019.9:+:1819035-1819433</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs2287921</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000019.9:+:49228073-49228471</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1761452</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000019.9:+:54815167-54815565</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">rs74504435</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000007.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000007.13:+:54949057-54949455</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs12539172</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000007.13:+:100091596-100091994</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs3935067</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000007.13:+:143104132-143104530</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">rs58250526</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000012.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000012.11:+:113591238-113591636</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs73208737</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000012.11:+:113634856-113635254</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs7297749|rs76097225</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000012.11:+:113659422-113659951</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs78810900</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000012.11:+:113679399-113679797</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">rs9633740</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000010.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000010.10:+:82265072-82265470</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs1870137|rs1870138|rs7080009</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000010.10:+:82269262-82270047</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs117148433</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000010.10:+:98017667-98018065</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs117699776</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000010.10:+:98048066-98048464</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs56029211</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000010.10:+:124127791-124128189</t>
+  </si>
+  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">rs2777795</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000009.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000009.11:+:107672166-107672564</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
     <t xml:space="preserve">rs6064392</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000020.10:+:54984569-54984967</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs6024870</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10:+:54997369-54997767</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs718022</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10:+:55003266-55003664</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs76842328</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10:+:55012793-55013191</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs927174</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10:+:55014967-55015365</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs544475179|rs7274581</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000020.10:+:55017957-55018459</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">rs17125798|rs1952088</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000014.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000014.8:+:53319633-53320104</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs11629431</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000014.8:+:53320329-53320727</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs7149638</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000014.8:+:53346732-53347130</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs8003334|rs8019279|rs8019585</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000014.8:+:53374578-53375166</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">rs6733839|rs34779859</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000002.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000002.11:+:127892569-127893009</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs72934512</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000002.11:+:203926072-203926470</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">rs2452758</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000005.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000005.9:+:86181504-86181902</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs56363426</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000005.9:+:86300259-86300657</t>
+  </si>
+  <si>
     <t xml:space="preserve">rs3087616</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000005.9:+:156513083-156513481</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">rs332261|rs332262</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000015.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000015.9:+:64382698-64383228</t>
+  </si>
+  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">rs469420</t>
   </si>
   <si>
+    <t xml:space="preserve">NC_000021.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000021.8:+:27541745-27542143</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">rs2245466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000004.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000004.11:+:40198647-40199045</t>
   </si>
 </sst>
 </file>
@@ -647,10 +917,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>47377084</v>
@@ -662,15 +938,21 @@
         <v>399</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>47410689</v>
@@ -682,15 +964,21 @@
         <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>47416547</v>
@@ -702,15 +990,21 @@
         <v>399</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>47430400</v>
@@ -722,15 +1016,21 @@
         <v>399</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>59961228</v>
@@ -742,15 +1042,21 @@
         <v>458</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>60000375</v>
@@ -762,15 +1068,21 @@
         <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>60002736</v>
@@ -782,15 +1094,21 @@
         <v>399</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>60019913</v>
@@ -802,15 +1120,21 @@
         <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>60031071</v>
@@ -822,15 +1146,21 @@
         <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>60033172</v>
@@ -842,15 +1172,21 @@
         <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>85814831</v>
@@ -862,15 +1198,21 @@
         <v>399</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
         <v>85828349</v>
@@ -882,15 +1224,21 @@
         <v>402</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>85867676</v>
@@ -902,15 +1250,21 @@
         <v>399</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
         <v>121352878</v>
@@ -922,15 +1276,21 @@
         <v>399</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
         <v>27194922</v>
@@ -942,15 +1302,21 @@
         <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B17" t="n">
         <v>27219788</v>
@@ -962,15 +1328,21 @@
         <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
         <v>27456054</v>
@@ -982,15 +1354,21 @@
         <v>399</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>27465958</v>
@@ -1002,15 +1380,21 @@
         <v>557</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
         <v>145158408</v>
@@ -1022,15 +1406,21 @@
         <v>399</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B21" t="n">
         <v>29984640</v>
@@ -1042,15 +1432,21 @@
         <v>399</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B22" t="n">
         <v>30021203</v>
@@ -1062,15 +1458,21 @@
         <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B23" t="n">
         <v>31153947</v>
@@ -1082,15 +1484,21 @@
         <v>399</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B24" t="n">
         <v>32590438</v>
@@ -1102,15 +1510,21 @@
         <v>403</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n">
         <v>32591389</v>
@@ -1122,15 +1536,21 @@
         <v>399</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B26" t="n">
         <v>114637232</v>
@@ -1142,15 +1562,21 @@
         <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B27" t="n">
         <v>114645038</v>
@@ -1162,15 +1588,21 @@
         <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B28" t="n">
         <v>1639520</v>
@@ -1182,15 +1614,21 @@
         <v>714</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B29" t="n">
         <v>1640330</v>
@@ -1202,15 +1640,21 @@
         <v>905</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B30" t="n">
         <v>1641516</v>
@@ -1222,15 +1666,21 @@
         <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B31" t="n">
         <v>1648303</v>
@@ -1242,15 +1692,21 @@
         <v>399</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B32" t="n">
         <v>18044393</v>
@@ -1262,15 +1718,21 @@
         <v>399</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B33" t="n">
         <v>18044899</v>
@@ -1282,15 +1744,21 @@
         <v>399</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>18090455</v>
@@ -1302,15 +1770,21 @@
         <v>399</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n">
         <v>44842937</v>
@@ -1322,15 +1796,21 @@
         <v>399</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B36" t="n">
         <v>44848239</v>
@@ -1342,15 +1822,21 @@
         <v>478</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B37" t="n">
         <v>44859516</v>
@@ -1362,15 +1848,21 @@
         <v>399</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
         <v>44862934</v>
@@ -1382,15 +1874,21 @@
         <v>399</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B39" t="n">
         <v>1819035</v>
@@ -1402,15 +1900,21 @@
         <v>399</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B40" t="n">
         <v>49228073</v>
@@ -1422,15 +1926,21 @@
         <v>399</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B41" t="n">
         <v>54815167</v>
@@ -1442,15 +1952,21 @@
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B42" t="n">
         <v>54949057</v>
@@ -1462,15 +1978,21 @@
         <v>399</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B43" t="n">
         <v>100091596</v>
@@ -1482,15 +2004,21 @@
         <v>399</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B44" t="n">
         <v>143104132</v>
@@ -1502,15 +2030,21 @@
         <v>399</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B45" t="n">
         <v>113591238</v>
@@ -1522,15 +2056,21 @@
         <v>399</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B46" t="n">
         <v>113634856</v>
@@ -1542,15 +2082,21 @@
         <v>399</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B47" t="n">
         <v>113659422</v>
@@ -1562,15 +2108,21 @@
         <v>530</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="G47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B48" t="n">
         <v>113679399</v>
@@ -1582,15 +2134,21 @@
         <v>399</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>117</v>
+      </c>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B49" t="n">
         <v>82265072</v>
@@ -1602,15 +2160,21 @@
         <v>399</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B50" t="n">
         <v>82269262</v>
@@ -1622,15 +2186,21 @@
         <v>786</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B51" t="n">
         <v>98017667</v>
@@ -1642,15 +2212,21 @@
         <v>399</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B52" t="n">
         <v>98048066</v>
@@ -1662,15 +2238,21 @@
         <v>399</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B53" t="n">
         <v>124127791</v>
@@ -1682,15 +2264,21 @@
         <v>399</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B54" t="n">
         <v>107672166</v>
@@ -1702,15 +2290,21 @@
         <v>399</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>132</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B55" t="n">
         <v>54984569</v>
@@ -1722,15 +2316,21 @@
         <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>136</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B56" t="n">
         <v>54997369</v>
@@ -1742,15 +2342,21 @@
         <v>399</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>139</v>
+      </c>
+      <c r="G56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B57" t="n">
         <v>55003266</v>
@@ -1762,15 +2368,21 @@
         <v>399</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="G57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B58" t="n">
         <v>55012793</v>
@@ -1782,15 +2394,21 @@
         <v>399</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B59" t="n">
         <v>55014967</v>
@@ -1802,15 +2420,21 @@
         <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>145</v>
+      </c>
+      <c r="G59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B60" t="n">
         <v>55017957</v>
@@ -1822,15 +2446,21 @@
         <v>503</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="G60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B61" t="n">
         <v>53319633</v>
@@ -1842,15 +2472,21 @@
         <v>472</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>150</v>
+      </c>
+      <c r="G61" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B62" t="n">
         <v>53320329</v>
@@ -1862,15 +2498,21 @@
         <v>399</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>153</v>
+      </c>
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+      <c r="H62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B63" t="n">
         <v>53346732</v>
@@ -1882,15 +2524,21 @@
         <v>399</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>155</v>
+      </c>
+      <c r="G63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B64" t="n">
         <v>53374578</v>
@@ -1902,15 +2550,21 @@
         <v>589</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>157</v>
+      </c>
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B65" t="n">
         <v>127892569</v>
@@ -1922,15 +2576,21 @@
         <v>441</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>160</v>
+      </c>
+      <c r="G65" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B66" t="n">
         <v>203926072</v>
@@ -1942,15 +2602,21 @@
         <v>399</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>163</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B67" t="n">
         <v>86181504</v>
@@ -1962,15 +2628,21 @@
         <v>399</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>166</v>
+      </c>
+      <c r="G67" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B68" t="n">
         <v>86300259</v>
@@ -1982,15 +2654,21 @@
         <v>399</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="G68" t="s">
+        <v>167</v>
+      </c>
+      <c r="H68" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B69" t="n">
         <v>156513083</v>
@@ -2002,15 +2680,21 @@
         <v>399</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>171</v>
+      </c>
+      <c r="G69" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B70" t="n">
         <v>64382698</v>
@@ -2022,15 +2706,21 @@
         <v>531</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>174</v>
+      </c>
+      <c r="G70" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B71" t="n">
         <v>27541745</v>
@@ -2042,15 +2732,21 @@
         <v>399</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>178</v>
+      </c>
+      <c r="G71" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B72" t="n">
         <v>40198647</v>
@@ -2062,10 +2758,16 @@
         <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>182</v>
+      </c>
+      <c r="G72" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
